--- a/testData/TestPlanandData.xlsx
+++ b/testData/TestPlanandData.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium_with_python\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76F31898-5B3D-4B81-AFEA-DE7C055513C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA22BFA-1150-40BC-B7C6-8B3D3E3851FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{9B746AF9-1241-4575-9AFF-ADF35816F709}"/>
   </bookViews>
   <sheets>
-    <sheet name="testplan" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>different functionalities that we have for testing MakeMyTrip.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>Login</t>
   </si>
@@ -37,41 +34,265 @@
     <t>Logout</t>
   </si>
   <si>
-    <t>flights</t>
-  </si>
-  <si>
-    <t>Search Functionality</t>
-  </si>
-  <si>
-    <t>Booking Functionality</t>
-  </si>
-  <si>
-    <t>Filter Functionality</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>rohan92.pune@gmail.com</t>
-  </si>
-  <si>
-    <t>nasik51pune$</t>
-  </si>
-  <si>
-    <t>ping23ying#</t>
-  </si>
-  <si>
-    <t>4455#yuio</t>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Reference Document</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Creation Date</t>
+  </si>
+  <si>
+    <t>MakeMyTrip Automation</t>
+  </si>
+  <si>
+    <t>MakeMyTrip</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Rohan Shirude</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>Test Scenario Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Number of Test Cases</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate working of Logout function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate working of Login function </t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario </t>
+  </si>
+  <si>
+    <t>Test Case Title</t>
+  </si>
+  <si>
+    <t>Pre-requisites</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Expected Result (ER)</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>TC_Login_001</t>
+  </si>
+  <si>
+    <t>Login Functionality</t>
+  </si>
+  <si>
+    <t>Validate the login using valid credentials</t>
+  </si>
+  <si>
+    <t>1. Open application URL (https://www.makemytrip.com/)              
+2. Login credentials for an existing account are required</t>
+  </si>
+  <si>
+    <t>1.User should be navigated to Login page
+2.User should get logged in and taken to the 'Account' page</t>
+  </si>
+  <si>
+    <t>TC_Login_002</t>
+  </si>
+  <si>
+    <t>TC_Login_003</t>
+  </si>
+  <si>
+    <t>TC_Login_004</t>
+  </si>
+  <si>
+    <t>TC_Login_005</t>
+  </si>
+  <si>
+    <t>TC_Login_006</t>
+  </si>
+  <si>
+    <t>TC_Login_007</t>
+  </si>
+  <si>
+    <t>TC_Login_008</t>
+  </si>
+  <si>
+    <t>TC_Login_009</t>
+  </si>
+  <si>
+    <t>1.User should be navigated to Login page
+2.User should not get logged in and it should say, "The username or password is incorrect"</t>
+  </si>
+  <si>
+    <t>1. Click on Login button.
+2. Enter invalid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+3. Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+4. Click on 'Login' button.</t>
+  </si>
+  <si>
+    <t>1. Click on Login button.
+2. Enter valid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+3. Enter invalid password into the 'Password' field - &lt;Refer Test Data&gt;
+4. Click on 'Login' button.</t>
+  </si>
+  <si>
+    <t>1. Click on Login button.
+2. Enter valid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;
+3. Enter valid password into the 'Password' field - &lt;Refer Test Data&gt;
+4. Click on 'Login' button.</t>
+  </si>
+  <si>
+    <t>Validate the login using valid credentials
+(Valid Phone Number)</t>
+  </si>
+  <si>
+    <t>1. Click on Login button.
+2. Enter Invalid email address into the 'E-Mail Address' field - &lt;Refer Test Data&gt;</t>
+  </si>
+  <si>
+    <t>1.User should be navigated to Login page
+2.User should get message "Enter correct User Name"</t>
+  </si>
+  <si>
+    <t>Validate the login using valid credentials
+(Username is different)</t>
+  </si>
+  <si>
+    <t>Validate the login using Invalid credentials
+(username:email is Invalid, missing @)</t>
+  </si>
+  <si>
+    <t>Validate the login using Invalid credentials
+(username:email is Invalid, missing ".")</t>
+  </si>
+  <si>
+    <t>Validate the login using Invalid credentials
+(username:email is Invalid, missing the initial part)</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Validate working of Booking Functionality</t>
+  </si>
+  <si>
+    <t>Validate the login using Invalid credentials
+(Phone number is incorrect, try enter alphabets)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on Login button.
+2. Enter invalid phone number, try and enter alpha bets
+</t>
+  </si>
+  <si>
+    <t>1.User should be navigated to Login page
+2.User should get error message saying "enter valid phone number", alphabets should be missing in the textbox</t>
+  </si>
+  <si>
+    <t>Validate the login using valid credentials
+(Password is Wrong)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open application URL (https://www.makemytrip.com/)              
+</t>
+  </si>
+  <si>
+    <t>Validate the login using Invalid credentials
+(Phone number is incorrect, try extra digits)</t>
+  </si>
+  <si>
+    <t>1.User should be navigated to Login page
+2.No extra digits are added in the Username field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on Login button.
+2. Enter invalid phone number, try to enter extra digits.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: shiruderohan@gmail.com
+password: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: shiruderohn@gmail.com
+password: </t>
+  </si>
+  <si>
+    <t>username: shiruderohan@gmail.com
+password: (enter invalid password)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: 9545111111
+password: </t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: shiruderohn@gmailcom
+password: </t>
+  </si>
+  <si>
+    <t>1. Click on Login button.
+2. Enter valid Phone number, click login.
+3. Enter valid OTP you get.
+4. Click on 'Login' button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: @gmail.com
+password: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: shiruderohngmail.com
+password: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: 9586opu
+password: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">username: 989898989898
+password: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +300,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF305496"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,13 +355,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,51 +726,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EE2A79-196F-4587-912D-A1F0B50AF94C}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.140625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -469,52 +902,511 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19A8680-478C-4DC6-8E5B-836046C0A30F}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DAA86B-95CF-4EB0-AB68-7AAC536DC961}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="70.140625" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" customWidth="1"/>
+    <col min="7" max="7" width="48.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9545868078</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>